--- a/mosqito/tests/roughness/data/Test_fc_8000.xlsx
+++ b/mosqito/tests/roughness/data/Test_fc_8000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQITo_oo\mosqito\tests\roughness\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQIToGUI\mosqito\tests\roughness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BCD370-A4F9-46FF-ABBB-4233F052D8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E8D1D3-E55C-4A7C-824A-FFB707D8F6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54286DAF-FAE0-4B96-A9C7-FAE8BC66FFAB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Roughness calculation according to Daniel and Weber method </t>
   </si>
@@ -51,94 +51,124 @@
     <t>R</t>
   </si>
   <si>
-    <t>17.883463</t>
-  </si>
-  <si>
-    <t>41.638683</t>
-  </si>
-  <si>
-    <t>44.106934</t>
-  </si>
-  <si>
-    <t>52.413486</t>
-  </si>
-  <si>
-    <t>55.667343</t>
-  </si>
-  <si>
-    <t>60.589725</t>
-  </si>
-  <si>
-    <t>66.6696</t>
-  </si>
-  <si>
-    <t>70.98513</t>
-  </si>
-  <si>
-    <t>76.19545</t>
-  </si>
-  <si>
-    <t>81.78732</t>
-  </si>
-  <si>
-    <t>89.7085</t>
-  </si>
-  <si>
-    <t>94.203926</t>
-  </si>
-  <si>
-    <t>104.71086</t>
-  </si>
-  <si>
-    <t>122.207664</t>
-  </si>
-  <si>
-    <t>216.48747</t>
-  </si>
-  <si>
-    <t>0.090005204</t>
-  </si>
-  <si>
-    <t>0.30700368</t>
-  </si>
-  <si>
-    <t>0.33066767</t>
-  </si>
-  <si>
-    <t>0.39099863</t>
-  </si>
-  <si>
-    <t>0.4119403</t>
-  </si>
-  <si>
-    <t>0.42801648</t>
-  </si>
-  <si>
-    <t>0.44225395</t>
-  </si>
-  <si>
-    <t>0.43849927</t>
-  </si>
-  <si>
-    <t>0.4264474</t>
-  </si>
-  <si>
-    <t>0.41358426</t>
-  </si>
-  <si>
-    <t>0.38059384</t>
-  </si>
-  <si>
-    <t>0.36009377</t>
-  </si>
-  <si>
-    <t>0.3033556</t>
-  </si>
-  <si>
-    <t>0.23456527</t>
-  </si>
-  <si>
-    <t>0.08645088</t>
+    <t>17.80395</t>
+  </si>
+  <si>
+    <t>23.941593</t>
+  </si>
+  <si>
+    <t>34.73655</t>
+  </si>
+  <si>
+    <t>41.949356</t>
+  </si>
+  <si>
+    <t>44.321423</t>
+  </si>
+  <si>
+    <t>51.991188</t>
+  </si>
+  <si>
+    <t>55.790886</t>
+  </si>
+  <si>
+    <t>61.60936</t>
+  </si>
+  <si>
+    <t>66.79713</t>
+  </si>
+  <si>
+    <t>70.92175</t>
+  </si>
+  <si>
+    <t>76.48056</t>
+  </si>
+  <si>
+    <t>82.46687</t>
+  </si>
+  <si>
+    <t>90.54218</t>
+  </si>
+  <si>
+    <t>94.376076</t>
+  </si>
+  <si>
+    <t>105.48482</t>
+  </si>
+  <si>
+    <t>109.09549</t>
+  </si>
+  <si>
+    <t>122.24679</t>
+  </si>
+  <si>
+    <t>143.51547</t>
+  </si>
+  <si>
+    <t>183.9545</t>
+  </si>
+  <si>
+    <t>219.89703</t>
+  </si>
+  <si>
+    <t>0.09006271</t>
+  </si>
+  <si>
+    <t>0.1385833</t>
+  </si>
+  <si>
+    <t>0.23610486</t>
+  </si>
+  <si>
+    <t>0.3065645</t>
+  </si>
+  <si>
+    <t>0.32895532</t>
+  </si>
+  <si>
+    <t>0.3877164</t>
+  </si>
+  <si>
+    <t>0.40631378</t>
+  </si>
+  <si>
+    <t>0.42686793</t>
+  </si>
+  <si>
+    <t>0.43575785</t>
+  </si>
+  <si>
+    <t>0.4356466</t>
+  </si>
+  <si>
+    <t>0.42647484</t>
+  </si>
+  <si>
+    <t>0.40776858</t>
+  </si>
+  <si>
+    <t>0.3738506</t>
+  </si>
+  <si>
+    <t>0.35563606</t>
+  </si>
+  <si>
+    <t>0.29824737</t>
+  </si>
+  <si>
+    <t>0.2837258</t>
+  </si>
+  <si>
+    <t>0.2342281</t>
+  </si>
+  <si>
+    <t>0.17965466</t>
+  </si>
+  <si>
+    <t>0.11587502</t>
+  </si>
+  <si>
+    <t>0.08544585</t>
   </si>
 </sst>
 </file>
@@ -496,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB93DAF8-D6F9-40C3-97BC-E9F8A3738688}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -528,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -536,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -544,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -552,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -568,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -576,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -584,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -592,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -600,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -608,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -616,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -624,7 +654,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -632,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -640,7 +670,47 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
